--- a/project7/forecast_produce_sales_segment2.xlsx
+++ b/project7/forecast_produce_sales_segment2.xlsx
@@ -387,19 +387,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>5543355.94881186</v>
+        <v>267119.850555793</v>
       </c>
       <c r="D2" s="0">
-        <v>6047280.47708028</v>
+        <v>287634.092223972</v>
       </c>
       <c r="E2" s="0">
-        <v>5872854.48715886</v>
+        <v>280533.392199001</v>
       </c>
       <c r="F2" s="0">
-        <v>5213857.41046486</v>
+        <v>253706.308912585</v>
       </c>
       <c r="G2" s="0">
-        <v>5039431.42054344</v>
+        <v>246605.608887614</v>
       </c>
     </row>
     <row r="3">
@@ -410,19 +410,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>5338630.17936663</v>
+        <v>254065.399322366</v>
       </c>
       <c r="D3" s="0">
-        <v>5930981.15415959</v>
+        <v>277657.796861272</v>
       </c>
       <c r="E3" s="0">
-        <v>5725947.66330291</v>
+        <v>269491.638906065</v>
       </c>
       <c r="F3" s="0">
-        <v>4951312.69543034</v>
+        <v>238639.159738667</v>
       </c>
       <c r="G3" s="0">
-        <v>4746279.20457367</v>
+        <v>230473.001783459</v>
       </c>
     </row>
     <row r="4">
@@ -433,19 +433,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>6174803.80112158</v>
+        <v>292341.960478844</v>
       </c>
       <c r="D4" s="0">
-        <v>6907973.71637305</v>
+        <v>323486.745533066</v>
       </c>
       <c r="E4" s="0">
-        <v>6654197.84106932</v>
+        <v>312706.440826249</v>
       </c>
       <c r="F4" s="0">
-        <v>5695409.76117384</v>
+        <v>271977.480131438</v>
       </c>
       <c r="G4" s="0">
-        <v>5441633.8858701</v>
+        <v>261197.175424621</v>
       </c>
     </row>
     <row r="5">
@@ -456,19 +456,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>5832207.19731875</v>
+        <v>282403.506319702</v>
       </c>
       <c r="D5" s="0">
-        <v>6636500.19858714</v>
+        <v>315911.660438468</v>
       </c>
       <c r="E5" s="0">
-        <v>6358106.12355537</v>
+        <v>304313.310636587</v>
       </c>
       <c r="F5" s="0">
-        <v>5306308.27108213</v>
+        <v>260493.702002818</v>
       </c>
       <c r="G5" s="0">
-        <v>5027914.19605036</v>
+        <v>248895.352200937</v>
       </c>
     </row>
     <row r="6">
@@ -479,19 +479,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>6750773.89230104</v>
+        <v>318611.407706171</v>
       </c>
       <c r="D6" s="0">
-        <v>7683750.54393608</v>
+        <v>359919.739120796</v>
       </c>
       <c r="E6" s="0">
-        <v>7360814.53485909</v>
+        <v>345621.47381556</v>
       </c>
       <c r="F6" s="0">
-        <v>6140733.24974299</v>
+        <v>291601.341596782</v>
       </c>
       <c r="G6" s="0">
-        <v>5817797.240666</v>
+        <v>277303.076291545</v>
       </c>
     </row>
     <row r="7">
@@ -502,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>6877591.21028959</v>
+        <v>326052.780579756</v>
       </c>
       <c r="D7" s="0">
-        <v>7905347.05914218</v>
+        <v>371632.725656654</v>
       </c>
       <c r="E7" s="0">
-        <v>7549604.63884438</v>
+        <v>355855.904734837</v>
       </c>
       <c r="F7" s="0">
-        <v>6205577.7817348</v>
+        <v>296249.656424674</v>
       </c>
       <c r="G7" s="0">
-        <v>5849835.36143699</v>
+        <v>280472.835502858</v>
       </c>
     </row>
     <row r="8">
@@ -525,19 +525,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>6973347.42346324</v>
+        <v>329543.068974335</v>
       </c>
       <c r="D8" s="0">
-        <v>8089345.49779896</v>
+        <v>378728.702111271</v>
       </c>
       <c r="E8" s="0">
-        <v>7703059.34194287</v>
+        <v>361703.825828107</v>
       </c>
       <c r="F8" s="0">
-        <v>6243635.50498361</v>
+        <v>297382.312120564</v>
       </c>
       <c r="G8" s="0">
-        <v>5857349.34912751</v>
+        <v>280357.4358374</v>
       </c>
     </row>
     <row r="9">
@@ -548,19 +548,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>6055028.08192028</v>
+        <v>295579.204364193</v>
       </c>
       <c r="D9" s="0">
-        <v>7208259.26969114</v>
+        <v>342326.853808094</v>
       </c>
       <c r="E9" s="0">
-        <v>6809085.42469815</v>
+        <v>326145.849365285</v>
       </c>
       <c r="F9" s="0">
-        <v>5300970.73914241</v>
+        <v>265012.559363101</v>
       </c>
       <c r="G9" s="0">
-        <v>4901796.89414942</v>
+        <v>248831.554920292</v>
       </c>
     </row>
     <row r="10">
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>5382731.53096651</v>
+        <v>265215.831658795</v>
       </c>
       <c r="D10" s="0">
-        <v>6568069.13704008</v>
+        <v>309397.847766281</v>
       </c>
       <c r="E10" s="0">
-        <v>6157782.13227588</v>
+        <v>294104.899191713</v>
       </c>
       <c r="F10" s="0">
-        <v>4607680.92965715</v>
+        <v>236326.764125877</v>
       </c>
       <c r="G10" s="0">
-        <v>4197393.92489295</v>
+        <v>221033.81555131</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>5255635.12517756</v>
+        <v>260183.194339197</v>
       </c>
       <c r="D11" s="0">
-        <v>6481910.18086376</v>
+        <v>305616.516123288</v>
       </c>
       <c r="E11" s="0">
-        <v>6057453.28602083</v>
+        <v>289890.446676263</v>
       </c>
       <c r="F11" s="0">
-        <v>4453816.96433429</v>
+        <v>230475.942002131</v>
       </c>
       <c r="G11" s="0">
-        <v>4029360.06949135</v>
+        <v>214749.872555106</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>5341924.44516355</v>
+        <v>268877.697933027</v>
       </c>
       <c r="D12" s="0">
-        <v>6613251.42347833</v>
+        <v>317895.15720478</v>
       </c>
       <c r="E12" s="0">
-        <v>6173200.47484057</v>
+        <v>300928.491806913</v>
       </c>
       <c r="F12" s="0">
-        <v>4510648.41548654</v>
+        <v>236826.904059141</v>
       </c>
       <c r="G12" s="0">
-        <v>4070597.46684877</v>
+        <v>219860.238661274</v>
       </c>
     </row>
     <row r="13">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>5473541.28900377</v>
+        <v>260865.151021829</v>
       </c>
       <c r="D13" s="0">
-        <v>6791304.18715848</v>
+        <v>310346.437192453</v>
       </c>
       <c r="E13" s="0">
-        <v>6335180.13464973</v>
+        <v>293219.225003451</v>
       </c>
       <c r="F13" s="0">
-        <v>4611902.4433578</v>
+        <v>228511.077040206</v>
       </c>
       <c r="G13" s="0">
-        <v>4155778.39084906</v>
+        <v>211383.864851204</v>
       </c>
     </row>
   </sheetData>
